--- a/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_EQ组.xlsx
+++ b/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_EQ组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -279,6 +279,26 @@
   </si>
   <si>
     <t>施超</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改官网联系我们400转接电话，申请合作联系人信息更换</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1083,10 +1103,10 @@
   <dimension ref="A1:V166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1755,24 +1775,54 @@
       <c r="T12" s="40"/>
       <c r="U12" s="42"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+    <row r="13" spans="1:22" ht="33">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="H13" s="41"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="38"/>
+      <c r="I13" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="38">
+        <v>42733</v>
+      </c>
       <c r="K13" s="47"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
+      <c r="L13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="38">
+        <v>42733</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
